--- a/Dashboards-test/KRYPTO.xlsx
+++ b/Dashboards-test/KRYPTO.xlsx
@@ -26,7 +26,7 @@
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
     <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$14</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$14</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$14</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -103,49 +103,58 @@
     <x:t>0,0 (0/0)</x:t>
   </x:si>
   <x:si>
+    <x:t>2,7 (107/40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (18/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (89/34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (366/190)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,5 (15/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (73/55)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (61/47)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (10/8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (3/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (88/40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (51/17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,9 (46/16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,8 (19/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (16/12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,4 (3/8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (13/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,3 (7/21)</x:t>
+  </x:si>
+  <x:si>
     <x:t>- (/)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (107/40)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (18/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (89/34)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (347/186)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,5 (15/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (73/55)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (61/47)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (10/8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (3/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (88/40)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (51/17)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,9 (46/16)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,4 (3/8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,3 (7/21)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -625,10 +634,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>1339.55160416671</x:v>
+        <x:v>1335.50962500005</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>643893.599208335</x:v>
+        <x:v>646516.114708335</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
         <x:v>0</x:v>
@@ -665,6 +674,12 @@
       </x:c>
       <x:c r="P2" s="16" t="n">
         <x:v>1221.37849999999</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>2622.5155000001</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -672,7 +687,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>237.087861111116</x:v>
+        <x:v>203.218166666671</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
         <x:v>300164.670000001</x:v>
@@ -711,6 +726,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -719,7 +740,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>160.529461805553</x:v>
+        <x:v>137.596681547617</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
         <x:v>980614.74920833</x:v>
@@ -758,6 +779,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P4" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -797,16 +824,18 @@
       <x:c r="N5" s="16" t="s"/>
       <x:c r="O5" s="16" t="s"/>
       <x:c r="P5" s="16" t="s"/>
+      <x:c r="Q5" s="16" t="s"/>
+      <x:c r="R5" s="16" t="s"/>
     </x:row>
     <x:row r="6" spans="1:146">
       <x:c r="B6" s="14" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>5.33201388889089</x:v>
+        <x:v>18.6427857142865</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>301305.091458333</x:v>
+        <x:v>301502.106291666</x:v>
       </x:c>
       <x:c r="E6" s="16" t="n">
         <x:v>0</x:v>
@@ -843,6 +872,12 @@
       </x:c>
       <x:c r="P6" s="16" t="n">
         <x:v>63.9841666666907</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>197.01483333332</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -889,6 +924,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -914,6 +955,8 @@
       <x:c r="N8" s="16" t="s"/>
       <x:c r="O8" s="16" t="s"/>
       <x:c r="P8" s="16" t="s"/>
+      <x:c r="Q8" s="16" t="s"/>
+      <x:c r="R8" s="16" t="s"/>
     </x:row>
     <x:row r="9" spans="1:146">
       <x:c r="B9" s="14" t="s">
@@ -937,6 +980,8 @@
       <x:c r="N9" s="16" t="s"/>
       <x:c r="O9" s="16" t="s"/>
       <x:c r="P9" s="16" t="s"/>
+      <x:c r="Q9" s="16" t="s"/>
+      <x:c r="R9" s="16" t="s"/>
     </x:row>
     <x:row r="10" spans="1:146">
       <x:c r="B10" s="14" t="s">
@@ -984,6 +1029,12 @@
       <x:c r="P10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:146">
       <x:c r="B11" s="14" t="s">
@@ -1029,6 +1080,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R11" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1054,6 +1111,8 @@
       <x:c r="N12" s="16" t="s"/>
       <x:c r="O12" s="16" t="s"/>
       <x:c r="P12" s="16" t="s"/>
+      <x:c r="Q12" s="16" t="s"/>
+      <x:c r="R12" s="16" t="s"/>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
@@ -1081,13 +1140,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P13" s="16" t="s"/>
-      <x:c r="AC13" s="17" t="s"/>
+      <x:c r="Q13" s="16" t="s"/>
+      <x:c r="R13" s="16" t="s"/>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -1213,10 +1274,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -1224,35 +1285,35 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D3" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E3" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F3" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G3" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H3" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I3" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J3" s="19" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D3" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E3" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F3" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G3" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H3" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I3" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J3" s="19" t="s">
+      <x:c r="K3" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L3" s="19" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="K3" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="L3" s="19" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="M3" s="19" t="s">
         <x:v>17</x:v>
       </x:c>
@@ -1263,10 +1324,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
@@ -1274,49 +1335,49 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D4" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E4" s="19" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D4" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E4" s="19" t="s">
+      <x:c r="F4" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G4" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H4" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I4" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F4" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G4" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H4" s="19" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I4" s="19" t="s">
+      <x:c r="J4" s="19" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="J4" s="19" t="s">
+      <x:c r="K4" s="19" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="K4" s="19" t="s">
+      <x:c r="L4" s="19" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="L4" s="19" t="s">
+      <x:c r="M4" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="M4" s="19" t="s">
+      <x:c r="N4" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="N4" s="19" t="s">
+      <x:c r="O4" s="19" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="O4" s="19" t="s">
+      <x:c r="P4" s="19" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="P4" s="19" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
@@ -1360,13 +1421,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -1374,7 +1435,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
         <x:v>17</x:v>
@@ -1395,28 +1456,28 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
@@ -1463,10 +1524,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
@@ -1477,46 +1538,46 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -1527,46 +1588,46 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
@@ -1613,10 +1674,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
@@ -1663,10 +1724,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -1677,46 +1738,46 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -1727,31 +1788,31 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
         <x:v>17</x:v>
@@ -1760,13 +1821,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
